--- a/German_Tales/Data/org/Schmeller_Liste_Firmenich.xlsx
+++ b/German_Tales/Data/org/Schmeller_Liste_Firmenich.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lameli/HESSENBOX/Akademieprojekt/Quellen/Firmenich/Erschließung Firmenich/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/81aa60b0b6324d95/Dokumente/GitHub/DWA/German_Tales/Data/org/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67A023B4-4713-7B45-83FC-62FD5EF97A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{67A023B4-4713-7B45-83FC-62FD5EF97A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FAB56204-3493-493F-ACCA-990354EC25BD}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="26080" windowHeight="17500" xr2:uid="{FB59F9C7-27F1-2C43-BF83-84456B750884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{FB59F9C7-27F1-2C43-BF83-84456B750884}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -2898,7 +2898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2927,6 +2927,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3309,19 +3313,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{982D93DF-A52D-7F4F-8228-A5F58C7F8350}">
   <dimension ref="A1:D698"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B39" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" topLeftCell="A187" zoomScale="111" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C193" sqref="C193"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.1640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="62.6640625" customWidth="1"/>
-    <col min="4" max="4" width="69.83203125" customWidth="1"/>
+    <col min="1" max="1" width="27.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62.625" customWidth="1"/>
+    <col min="4" max="4" width="69.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -3335,7 +3339,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3349,7 +3353,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3363,7 +3367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -3377,7 +3381,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3391,7 +3395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -3405,7 +3409,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -3419,7 +3423,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -3433,7 +3437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3447,7 +3451,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -3461,7 +3465,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3475,7 +3479,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>7</v>
       </c>
@@ -3489,7 +3493,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>7</v>
       </c>
@@ -3503,7 +3507,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>7</v>
       </c>
@@ -3517,7 +3521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>7</v>
       </c>
@@ -3531,7 +3535,7 @@
         <v>920</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3545,7 +3549,7 @@
         <v>921</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3559,7 +3563,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
@@ -3573,7 +3577,7 @@
         <v>922</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3587,7 +3591,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>15</v>
       </c>
@@ -3601,7 +3605,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
@@ -3615,7 +3619,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>15</v>
       </c>
@@ -3629,7 +3633,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>15</v>
       </c>
@@ -3643,7 +3647,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>15</v>
       </c>
@@ -3657,7 +3661,7 @@
         <v>926</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3671,7 +3675,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
@@ -3685,7 +3689,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>23</v>
       </c>
@@ -3699,7 +3703,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>23</v>
       </c>
@@ -3713,7 +3717,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>31</v>
       </c>
@@ -3727,7 +3731,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>31</v>
       </c>
@@ -3741,7 +3745,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>31</v>
       </c>
@@ -3755,7 +3759,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>31</v>
       </c>
@@ -3769,7 +3773,7 @@
         <v>930</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -3783,7 +3787,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>35</v>
       </c>
@@ -3797,7 +3801,7 @@
         <v>932</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>40</v>
       </c>
@@ -3811,7 +3815,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>41</v>
       </c>
@@ -3825,7 +3829,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>41</v>
       </c>
@@ -3839,7 +3843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>44</v>
       </c>
@@ -3853,7 +3857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>45</v>
       </c>
@@ -3867,7 +3871,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>47</v>
       </c>
@@ -3881,7 +3885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>47</v>
       </c>
@@ -3895,7 +3899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>57</v>
       </c>
@@ -3909,7 +3913,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>57</v>
       </c>
@@ -3923,7 +3927,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>57</v>
       </c>
@@ -3937,7 +3941,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>57</v>
       </c>
@@ -3951,7 +3955,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>66</v>
       </c>
@@ -3965,7 +3969,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>67</v>
       </c>
@@ -3979,7 +3983,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>67</v>
       </c>
@@ -3993,7 +3997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>67</v>
       </c>
@@ -4007,7 +4011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>67</v>
       </c>
@@ -4021,7 +4025,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>67</v>
       </c>
@@ -4035,7 +4039,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>67</v>
       </c>
@@ -4049,7 +4053,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>67</v>
       </c>
@@ -4063,7 +4067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>67</v>
       </c>
@@ -4077,7 +4081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>67</v>
       </c>
@@ -4091,7 +4095,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>67</v>
       </c>
@@ -4105,7 +4109,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>77</v>
       </c>
@@ -4119,7 +4123,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>77</v>
       </c>
@@ -4133,7 +4137,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>81</v>
       </c>
@@ -4147,7 +4151,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>81</v>
       </c>
@@ -4161,7 +4165,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>81</v>
       </c>
@@ -4175,7 +4179,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>81</v>
       </c>
@@ -4189,7 +4193,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>85</v>
       </c>
@@ -4203,7 +4207,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>85</v>
       </c>
@@ -4217,7 +4221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>85</v>
       </c>
@@ -4231,7 +4235,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>85</v>
       </c>
@@ -4245,7 +4249,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>85</v>
       </c>
@@ -4259,7 +4263,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>85</v>
       </c>
@@ -4273,7 +4277,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>87</v>
       </c>
@@ -4287,7 +4291,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>87</v>
       </c>
@@ -4301,7 +4305,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>87</v>
       </c>
@@ -4315,7 +4319,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>87</v>
       </c>
@@ -4329,7 +4333,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>91</v>
       </c>
@@ -4343,7 +4347,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>91</v>
       </c>
@@ -4357,7 +4361,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>91</v>
       </c>
@@ -4371,7 +4375,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>91</v>
       </c>
@@ -4385,7 +4389,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>95</v>
       </c>
@@ -4399,7 +4403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>95</v>
       </c>
@@ -4413,7 +4417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>95</v>
       </c>
@@ -4427,7 +4431,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>100</v>
       </c>
@@ -4441,7 +4445,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>101</v>
       </c>
@@ -4455,7 +4459,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>101</v>
       </c>
@@ -4469,7 +4473,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>101</v>
       </c>
@@ -4483,7 +4487,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>102</v>
       </c>
@@ -4497,7 +4501,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>102</v>
       </c>
@@ -4511,7 +4515,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>102</v>
       </c>
@@ -4525,7 +4529,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>105</v>
       </c>
@@ -4539,7 +4543,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>107</v>
       </c>
@@ -4553,7 +4557,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>107</v>
       </c>
@@ -4567,7 +4571,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>108</v>
       </c>
@@ -4581,7 +4585,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>109</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>110</v>
       </c>
@@ -4609,7 +4613,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>110</v>
       </c>
@@ -4623,7 +4627,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>111</v>
       </c>
@@ -4637,7 +4641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>114</v>
       </c>
@@ -4651,7 +4655,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>115</v>
       </c>
@@ -4665,7 +4669,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>115</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>116</v>
       </c>
@@ -4693,7 +4697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>117</v>
       </c>
@@ -4707,7 +4711,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>118</v>
       </c>
@@ -4721,7 +4725,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>118</v>
       </c>
@@ -4735,7 +4739,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>120</v>
       </c>
@@ -4749,7 +4753,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>120</v>
       </c>
@@ -4763,7 +4767,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>121</v>
       </c>
@@ -4777,7 +4781,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>121</v>
       </c>
@@ -4791,7 +4795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>123</v>
       </c>
@@ -4805,7 +4809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>123</v>
       </c>
@@ -4819,7 +4823,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>123</v>
       </c>
@@ -4833,7 +4837,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>125</v>
       </c>
@@ -4847,7 +4851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>127</v>
       </c>
@@ -4861,7 +4865,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>127</v>
       </c>
@@ -4875,7 +4879,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>127</v>
       </c>
@@ -4889,7 +4893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>130</v>
       </c>
@@ -4903,7 +4907,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>130</v>
       </c>
@@ -4917,7 +4921,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>131</v>
       </c>
@@ -4931,7 +4935,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>131</v>
       </c>
@@ -4945,7 +4949,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>133</v>
       </c>
@@ -4959,7 +4963,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>133</v>
       </c>
@@ -4973,7 +4977,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>133</v>
       </c>
@@ -4987,7 +4991,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>133</v>
       </c>
@@ -5001,7 +5005,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>133</v>
       </c>
@@ -5015,7 +5019,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>133</v>
       </c>
@@ -5029,7 +5033,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>133</v>
       </c>
@@ -5043,7 +5047,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>141</v>
       </c>
@@ -5057,7 +5061,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>141</v>
       </c>
@@ -5071,7 +5075,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>141</v>
       </c>
@@ -5085,7 +5089,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>145</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>145</v>
       </c>
@@ -5113,7 +5117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>145</v>
       </c>
@@ -5127,7 +5131,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>145</v>
       </c>
@@ -5141,7 +5145,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>145</v>
       </c>
@@ -5155,7 +5159,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>154</v>
       </c>
@@ -5169,7 +5173,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>155</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>155</v>
       </c>
@@ -5197,7 +5201,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>156</v>
       </c>
@@ -5211,7 +5215,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>156</v>
       </c>
@@ -5225,7 +5229,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>156</v>
       </c>
@@ -5239,7 +5243,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>156</v>
       </c>
@@ -5253,7 +5257,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>156</v>
       </c>
@@ -5267,7 +5271,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>156</v>
       </c>
@@ -5281,7 +5285,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>156</v>
       </c>
@@ -5295,7 +5299,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>156</v>
       </c>
@@ -5306,7 +5310,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>156</v>
       </c>
@@ -5320,7 +5324,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>170</v>
       </c>
@@ -5334,7 +5338,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>171</v>
       </c>
@@ -5348,7 +5352,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>171</v>
       </c>
@@ -5362,7 +5366,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>172</v>
       </c>
@@ -5376,7 +5380,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>173</v>
       </c>
@@ -5390,7 +5394,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>173</v>
       </c>
@@ -5404,7 +5408,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>173</v>
       </c>
@@ -5418,7 +5422,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>173</v>
       </c>
@@ -5432,7 +5436,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>173</v>
       </c>
@@ -5446,7 +5450,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>182</v>
       </c>
@@ -5460,7 +5464,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>182</v>
       </c>
@@ -5474,7 +5478,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>184</v>
       </c>
@@ -5488,7 +5492,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>184</v>
       </c>
@@ -5502,7 +5506,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>184</v>
       </c>
@@ -5516,7 +5520,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>186</v>
       </c>
@@ -5530,7 +5534,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>186</v>
       </c>
@@ -5544,7 +5548,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>186</v>
       </c>
@@ -5558,7 +5562,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>188</v>
       </c>
@@ -5572,7 +5576,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>188</v>
       </c>
@@ -5586,7 +5590,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>188</v>
       </c>
@@ -5600,7 +5604,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>188</v>
       </c>
@@ -5614,7 +5618,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>188</v>
       </c>
@@ -5628,7 +5632,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>188</v>
       </c>
@@ -5642,7 +5646,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>193</v>
       </c>
@@ -5656,7 +5660,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>201</v>
       </c>
@@ -5670,7 +5674,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>201</v>
       </c>
@@ -5684,7 +5688,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="170" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>201</v>
       </c>
@@ -5698,7 +5702,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>205</v>
       </c>
@@ -5712,7 +5716,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>205</v>
       </c>
@@ -5726,7 +5730,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>207</v>
       </c>
@@ -5740,7 +5744,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>207</v>
       </c>
@@ -5754,7 +5758,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>207</v>
       </c>
@@ -5768,7 +5772,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>207</v>
       </c>
@@ -5782,7 +5786,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>207</v>
       </c>
@@ -5796,7 +5800,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="178" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>210</v>
       </c>
@@ -5810,7 +5814,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>212</v>
       </c>
@@ -5824,7 +5828,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>212</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>212</v>
       </c>
@@ -5852,7 +5856,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>212</v>
       </c>
@@ -5866,7 +5870,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>217</v>
       </c>
@@ -5880,7 +5884,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>217</v>
       </c>
@@ -5894,7 +5898,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>222</v>
       </c>
@@ -5908,7 +5912,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>222</v>
       </c>
@@ -5922,21 +5926,21 @@
         <v>329</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A187" s="3">
+    <row r="187" spans="1:4" s="15" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="14">
         <v>226</v>
       </c>
-      <c r="B187" s="3" t="s">
+      <c r="B187" s="14" t="s">
         <v>333</v>
       </c>
-      <c r="C187" t="s">
+      <c r="C187" s="15" t="s">
         <v>334</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D187" s="15" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>228</v>
       </c>
@@ -5950,7 +5954,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>228</v>
       </c>
@@ -5964,7 +5968,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>228</v>
       </c>
@@ -5978,7 +5982,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>228</v>
       </c>
@@ -5992,7 +5996,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>233</v>
       </c>
@@ -6006,7 +6010,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>233</v>
       </c>
@@ -6020,7 +6024,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>233</v>
       </c>
@@ -6034,7 +6038,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>235</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>235</v>
       </c>
@@ -6062,7 +6066,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>236</v>
       </c>
@@ -6076,7 +6080,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>239</v>
       </c>
@@ -6090,7 +6094,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>240</v>
       </c>
@@ -6104,7 +6108,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>240</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>240</v>
       </c>
@@ -6132,7 +6136,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>240</v>
       </c>
@@ -6146,7 +6150,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>240</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>240</v>
       </c>
@@ -6174,7 +6178,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>240</v>
       </c>
@@ -6188,7 +6192,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>240</v>
       </c>
@@ -6202,7 +6206,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>240</v>
       </c>
@@ -6216,7 +6220,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>240</v>
       </c>
@@ -6230,7 +6234,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>240</v>
       </c>
@@ -6244,7 +6248,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>240</v>
       </c>
@@ -6258,7 +6262,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>240</v>
       </c>
@@ -6272,7 +6276,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>240</v>
       </c>
@@ -6286,7 +6290,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>240</v>
       </c>
@@ -6300,7 +6304,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>240</v>
       </c>
@@ -6314,7 +6318,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>240</v>
       </c>
@@ -6328,7 +6332,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>240</v>
       </c>
@@ -6342,7 +6346,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>240</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>240</v>
       </c>
@@ -6370,7 +6374,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>254</v>
       </c>
@@ -6384,7 +6388,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="3">
         <v>254</v>
       </c>
@@ -6398,7 +6402,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A221" s="3">
         <v>254</v>
       </c>
@@ -6412,7 +6416,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A222" s="3">
         <v>254</v>
       </c>
@@ -6426,7 +6430,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A223" s="3">
         <v>254</v>
       </c>
@@ -6440,7 +6444,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A224" s="3">
         <v>259</v>
       </c>
@@ -6454,7 +6458,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A225" s="3">
         <v>261</v>
       </c>
@@ -6468,7 +6472,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A226" s="3">
         <v>262</v>
       </c>
@@ -6482,7 +6486,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="3">
         <v>262</v>
       </c>
@@ -6496,7 +6500,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="3">
         <v>262</v>
       </c>
@@ -6510,7 +6514,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="3">
         <v>262</v>
       </c>
@@ -6524,7 +6528,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="3">
         <v>272</v>
       </c>
@@ -6538,7 +6542,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="3">
         <v>272</v>
       </c>
@@ -6552,7 +6556,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="3">
         <v>272</v>
       </c>
@@ -6566,7 +6570,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="3">
         <v>272</v>
       </c>
@@ -6580,7 +6584,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="3">
         <v>272</v>
       </c>
@@ -6594,7 +6598,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="3">
         <v>272</v>
       </c>
@@ -6605,7 +6609,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="3">
         <v>272</v>
       </c>
@@ -6619,7 +6623,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="3">
         <v>272</v>
       </c>
@@ -6633,7 +6637,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="3">
         <v>272</v>
       </c>
@@ -6647,7 +6651,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="3">
         <v>272</v>
       </c>
@@ -6661,7 +6665,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="3">
         <v>282</v>
       </c>
@@ -6675,7 +6679,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="3">
         <v>283</v>
       </c>
@@ -6689,7 +6693,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="3">
         <v>283</v>
       </c>
@@ -6703,7 +6707,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="3">
         <v>285</v>
       </c>
@@ -6717,7 +6721,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="3">
         <v>285</v>
       </c>
@@ -6731,7 +6735,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="3">
         <v>285</v>
       </c>
@@ -6745,7 +6749,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="3">
         <v>286</v>
       </c>
@@ -6759,7 +6763,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="3">
         <v>286</v>
       </c>
@@ -6773,7 +6777,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="3">
         <v>286</v>
       </c>
@@ -6787,7 +6791,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="3">
         <v>286</v>
       </c>
@@ -6801,7 +6805,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="3">
         <v>286</v>
       </c>
@@ -6815,7 +6819,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="3">
         <v>286</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="3">
         <v>286</v>
       </c>
@@ -6843,7 +6847,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="3">
         <v>286</v>
       </c>
@@ -6857,7 +6861,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="3">
         <v>286</v>
       </c>
@@ -6871,7 +6875,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="3">
         <v>286</v>
       </c>
@@ -6885,7 +6889,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="3">
         <v>286</v>
       </c>
@@ -6899,7 +6903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="3">
         <v>286</v>
       </c>
@@ -6913,7 +6917,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="3">
         <v>286</v>
       </c>
@@ -6927,7 +6931,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="3">
         <v>286</v>
       </c>
@@ -6941,7 +6945,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="3">
         <v>286</v>
       </c>
@@ -6955,7 +6959,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="3">
         <v>286</v>
       </c>
@@ -6969,7 +6973,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A262" s="3">
         <v>286</v>
       </c>
@@ -6983,7 +6987,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="3">
         <v>286</v>
       </c>
@@ -6997,7 +7001,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A264" s="3">
         <v>286</v>
       </c>
@@ -7011,7 +7015,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="265" spans="1:4" ht="51" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A265" s="3">
         <v>286</v>
       </c>
@@ -7025,7 +7029,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="3">
         <v>286</v>
       </c>
@@ -7039,7 +7043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="3">
         <v>300</v>
       </c>
@@ -7053,7 +7057,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="3">
         <v>300</v>
       </c>
@@ -7067,7 +7071,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="3">
         <v>300</v>
       </c>
@@ -7081,7 +7085,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A270" s="3">
         <v>301</v>
       </c>
@@ -7095,7 +7099,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="3">
         <v>302</v>
       </c>
@@ -7109,7 +7113,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="3">
         <v>302</v>
       </c>
@@ -7123,7 +7127,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="3">
         <v>303</v>
       </c>
@@ -7137,7 +7141,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="3">
         <v>304</v>
       </c>
@@ -7151,7 +7155,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="3">
         <v>306</v>
       </c>
@@ -7165,7 +7169,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="3">
         <v>306</v>
       </c>
@@ -7179,7 +7183,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="3">
         <v>306</v>
       </c>
@@ -7193,7 +7197,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A278" s="3">
         <v>306</v>
       </c>
@@ -7207,7 +7211,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A279" s="3">
         <v>310</v>
       </c>
@@ -7221,7 +7225,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A280" s="3">
         <v>310</v>
       </c>
@@ -7235,7 +7239,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="3">
         <v>311</v>
       </c>
@@ -7249,7 +7253,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="3">
         <v>311</v>
       </c>
@@ -7263,7 +7267,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="3">
         <v>312</v>
       </c>
@@ -7277,7 +7281,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="3">
         <v>312</v>
       </c>
@@ -7291,7 +7295,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="3">
         <v>320</v>
       </c>
@@ -7305,7 +7309,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A286" s="3">
         <v>322</v>
       </c>
@@ -7319,7 +7323,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A287" s="3">
         <v>322</v>
       </c>
@@ -7333,7 +7337,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="3">
         <v>322</v>
       </c>
@@ -7347,7 +7351,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A289" s="3">
         <v>322</v>
       </c>
@@ -7361,7 +7365,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A290" s="3">
         <v>322</v>
       </c>
@@ -7375,7 +7379,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A291" s="3">
         <v>322</v>
       </c>
@@ -7389,7 +7393,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="3">
         <v>322</v>
       </c>
@@ -7403,7 +7407,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="3">
         <v>322</v>
       </c>
@@ -7417,7 +7421,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="3">
         <v>322</v>
       </c>
@@ -7431,7 +7435,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="3">
         <v>322</v>
       </c>
@@ -7445,7 +7449,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="3">
         <v>334</v>
       </c>
@@ -7459,7 +7463,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="3">
         <v>334</v>
       </c>
@@ -7473,7 +7477,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="3">
         <v>334</v>
       </c>
@@ -7487,7 +7491,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="3">
         <v>334</v>
       </c>
@@ -7501,7 +7505,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="3">
         <v>334</v>
       </c>
@@ -7515,7 +7519,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="3">
         <v>334</v>
       </c>
@@ -7529,7 +7533,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="3">
         <v>334</v>
       </c>
@@ -7543,7 +7547,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="3">
         <v>334</v>
       </c>
@@ -7557,7 +7561,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="3">
         <v>340</v>
       </c>
@@ -7571,7 +7575,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="3">
         <v>340</v>
       </c>
@@ -7585,7 +7589,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="3">
         <v>340</v>
       </c>
@@ -7599,7 +7603,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="3">
         <v>340</v>
       </c>
@@ -7613,7 +7617,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="3">
         <v>340</v>
       </c>
@@ -7627,7 +7631,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="3">
         <v>340</v>
       </c>
@@ -7641,7 +7645,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="3">
         <v>340</v>
       </c>
@@ -7655,7 +7659,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="3">
         <v>340</v>
       </c>
@@ -7669,7 +7673,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="3">
         <v>344</v>
       </c>
@@ -7683,7 +7687,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A313" s="3">
         <v>344</v>
       </c>
@@ -7697,7 +7701,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A314" s="3">
         <v>345</v>
       </c>
@@ -7711,7 +7715,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A315" s="3">
         <v>345</v>
       </c>
@@ -7725,7 +7729,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A316" s="3">
         <v>346</v>
       </c>
@@ -7739,7 +7743,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A317" s="3">
         <v>346</v>
       </c>
@@ -7753,7 +7757,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A318" s="3">
         <v>346</v>
       </c>
@@ -7767,7 +7771,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A319" s="3">
         <v>346</v>
       </c>
@@ -7781,7 +7785,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A320" s="3">
         <v>346</v>
       </c>
@@ -7795,7 +7799,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A321" s="3">
         <v>346</v>
       </c>
@@ -7809,7 +7813,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A322" s="3">
         <v>346</v>
       </c>
@@ -7823,7 +7827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A323" s="3">
         <v>350</v>
       </c>
@@ -7837,7 +7841,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A324" s="3">
         <v>350</v>
       </c>
@@ -7851,7 +7855,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A325" s="3">
         <v>351</v>
       </c>
@@ -7865,7 +7869,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A326" s="3">
         <v>351</v>
       </c>
@@ -7879,7 +7883,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A327" s="3">
         <v>351</v>
       </c>
@@ -7893,7 +7897,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A328" s="3">
         <v>352</v>
       </c>
@@ -7907,7 +7911,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A329" s="3">
         <v>352</v>
       </c>
@@ -7921,7 +7925,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A330" s="3">
         <v>352</v>
       </c>
@@ -7935,7 +7939,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A331" s="3">
         <v>354</v>
       </c>
@@ -7949,7 +7953,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A332" s="3">
         <v>354</v>
       </c>
@@ -7963,7 +7967,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A333" s="3">
         <v>354</v>
       </c>
@@ -7977,7 +7981,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A334" s="3">
         <v>354</v>
       </c>
@@ -7991,7 +7995,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A335" s="3">
         <v>354</v>
       </c>
@@ -8005,7 +8009,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A336" s="3">
         <v>354</v>
       </c>
@@ -8019,7 +8023,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A337" s="3">
         <v>357</v>
       </c>
@@ -8033,7 +8037,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A338" s="3">
         <v>357</v>
       </c>
@@ -8047,7 +8051,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A339" s="3">
         <v>358</v>
       </c>
@@ -8061,7 +8065,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A340" s="3">
         <v>363</v>
       </c>
@@ -8075,7 +8079,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A341" s="3">
         <v>364</v>
       </c>
@@ -8089,7 +8093,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A342" s="3">
         <v>364</v>
       </c>
@@ -8103,7 +8107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A343" s="3">
         <v>364</v>
       </c>
@@ -8117,7 +8121,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A344" s="3">
         <v>366</v>
       </c>
@@ -8131,7 +8135,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A345" s="3">
         <v>366</v>
       </c>
@@ -8145,7 +8149,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A346" s="3">
         <v>366</v>
       </c>
@@ -8159,7 +8163,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A347" s="3">
         <v>366</v>
       </c>
@@ -8173,7 +8177,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A348" s="3">
         <v>370</v>
       </c>
@@ -8187,7 +8191,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A349" s="3">
         <v>370</v>
       </c>
@@ -8201,7 +8205,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A350" s="3">
         <v>371</v>
       </c>
@@ -8215,7 +8219,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="351" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A351" s="3">
         <v>372</v>
       </c>
@@ -8229,7 +8233,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A352" s="3">
         <v>372</v>
       </c>
@@ -8243,7 +8247,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A353" s="3">
         <v>373</v>
       </c>
@@ -8257,7 +8261,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A354" s="3">
         <v>373</v>
       </c>
@@ -8271,7 +8275,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A355" s="3">
         <v>373</v>
       </c>
@@ -8285,7 +8289,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A356" s="3">
         <v>374</v>
       </c>
@@ -8299,7 +8303,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="357" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A357" s="3">
         <v>375</v>
       </c>
@@ -8313,7 +8317,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A358" s="3">
         <v>376</v>
       </c>
@@ -8327,7 +8331,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A359" s="3">
         <v>376</v>
       </c>
@@ -8341,7 +8345,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A360" s="3">
         <v>376</v>
       </c>
@@ -8355,7 +8359,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A361" s="3">
         <v>376</v>
       </c>
@@ -8369,7 +8373,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A362" s="3">
         <v>376</v>
       </c>
@@ -8383,7 +8387,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A363" s="3">
         <v>376</v>
       </c>
@@ -8397,7 +8401,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A364" s="3">
         <v>376</v>
       </c>
@@ -8411,7 +8415,7 @@
         <v>623</v>
       </c>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A365" s="3">
         <v>376</v>
       </c>
@@ -8425,7 +8429,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="3">
         <v>376</v>
       </c>
@@ -8439,7 +8443,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="3">
         <v>376</v>
       </c>
@@ -8453,7 +8457,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="3">
         <v>376</v>
       </c>
@@ -8467,7 +8471,7 @@
         <v>626</v>
       </c>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="3">
         <v>376</v>
       </c>
@@ -8481,7 +8485,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="3">
         <v>376</v>
       </c>
@@ -8495,7 +8499,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="3">
         <v>376</v>
       </c>
@@ -8509,7 +8513,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="372" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A372" s="3">
         <v>376</v>
       </c>
@@ -8523,7 +8527,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="3">
         <v>387</v>
       </c>
@@ -8537,7 +8541,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="3">
         <v>387</v>
       </c>
@@ -8551,7 +8555,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="3">
         <v>387</v>
       </c>
@@ -8565,7 +8569,7 @@
         <v>638</v>
       </c>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A376" s="3">
         <v>389</v>
       </c>
@@ -8579,7 +8583,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A377" s="3">
         <v>389</v>
       </c>
@@ -8593,7 +8597,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A378" s="3">
         <v>390</v>
       </c>
@@ -8607,7 +8611,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A379" s="3">
         <v>394</v>
       </c>
@@ -8621,7 +8625,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="3">
         <v>394</v>
       </c>
@@ -8635,7 +8639,7 @@
         <v>650</v>
       </c>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="3">
         <v>394</v>
       </c>
@@ -8649,7 +8653,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="3">
         <v>394</v>
       </c>
@@ -8663,7 +8667,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="3">
         <v>394</v>
       </c>
@@ -8677,7 +8681,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A384" s="3">
         <v>394</v>
       </c>
@@ -8691,7 +8695,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A385" s="3">
         <v>408</v>
       </c>
@@ -8705,7 +8709,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A386" s="3">
         <v>408</v>
       </c>
@@ -8719,7 +8723,7 @@
         <v>657</v>
       </c>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A387" s="3">
         <v>408</v>
       </c>
@@ -8733,7 +8737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="388" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A388" s="3">
         <v>408</v>
       </c>
@@ -8747,7 +8751,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="3">
         <v>408</v>
       </c>
@@ -8761,7 +8765,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="3">
         <v>412</v>
       </c>
@@ -8775,7 +8779,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="3">
         <v>412</v>
       </c>
@@ -8789,7 +8793,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="3">
         <v>412</v>
       </c>
@@ -8803,7 +8807,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="3">
         <v>413</v>
       </c>
@@ -8817,7 +8821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="3">
         <v>414</v>
       </c>
@@ -8831,7 +8835,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="3">
         <v>415</v>
       </c>
@@ -8845,7 +8849,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="3">
         <v>415</v>
       </c>
@@ -8859,7 +8863,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="3">
         <v>416</v>
       </c>
@@ -8873,7 +8877,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="3">
         <v>416</v>
       </c>
@@ -8887,7 +8891,7 @@
         <v>682</v>
       </c>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="3">
         <v>416</v>
       </c>
@@ -8901,7 +8905,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="3">
         <v>423</v>
       </c>
@@ -8915,7 +8919,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="3">
         <v>424</v>
       </c>
@@ -8929,7 +8933,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="3">
         <v>424</v>
       </c>
@@ -8943,7 +8947,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="3">
         <v>424</v>
       </c>
@@ -8957,7 +8961,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="3">
         <v>424</v>
       </c>
@@ -8971,7 +8975,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="3">
         <v>424</v>
       </c>
@@ -8985,7 +8989,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="3">
         <v>424</v>
       </c>
@@ -8999,7 +9003,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="3">
         <v>424</v>
       </c>
@@ -9013,7 +9017,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="3">
         <v>424</v>
       </c>
@@ -9027,7 +9031,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="3">
         <v>424</v>
       </c>
@@ -9041,7 +9045,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="3">
         <v>431</v>
       </c>
@@ -9055,7 +9059,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="3">
         <v>431</v>
       </c>
@@ -9069,7 +9073,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="3">
         <v>431</v>
       </c>
@@ -9083,7 +9087,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="3">
         <v>431</v>
       </c>
@@ -9097,7 +9101,7 @@
         <v>703</v>
       </c>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="3">
         <v>431</v>
       </c>
@@ -9111,7 +9115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="3">
         <v>431</v>
       </c>
@@ -9125,7 +9129,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="3">
         <v>431</v>
       </c>
@@ -9139,7 +9143,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="3">
         <v>431</v>
       </c>
@@ -9153,7 +9157,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="3">
         <v>431</v>
       </c>
@@ -9167,7 +9171,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="3">
         <v>438</v>
       </c>
@@ -9181,7 +9185,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="3">
         <v>439</v>
       </c>
@@ -9195,7 +9199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="3">
         <v>439</v>
       </c>
@@ -9209,7 +9213,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="3">
         <v>442</v>
       </c>
@@ -9223,7 +9227,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="3">
         <v>442</v>
       </c>
@@ -9237,7 +9241,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="3">
         <v>442</v>
       </c>
@@ -9251,7 +9255,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="3">
         <v>443</v>
       </c>
@@ -9265,7 +9269,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="3">
         <v>444</v>
       </c>
@@ -9279,7 +9283,7 @@
         <v>725</v>
       </c>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="3">
         <v>444</v>
       </c>
@@ -9293,7 +9297,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="3">
         <v>444</v>
       </c>
@@ -9307,7 +9311,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="429" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A429" s="3">
         <v>447</v>
       </c>
@@ -9321,7 +9325,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="3">
         <v>447</v>
       </c>
@@ -9335,7 +9339,7 @@
         <v>653</v>
       </c>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="3">
         <v>447</v>
       </c>
@@ -9349,7 +9353,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A432" s="3">
         <v>447</v>
       </c>
@@ -9363,7 +9367,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A433" s="3">
         <v>447</v>
       </c>
@@ -9377,7 +9381,7 @@
         <v>735</v>
       </c>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A434" s="3">
         <v>447</v>
       </c>
@@ -9391,7 +9395,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A435" s="3">
         <v>447</v>
       </c>
@@ -9405,7 +9409,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A436" s="3">
         <v>447</v>
       </c>
@@ -9419,7 +9423,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A437" s="3">
         <v>447</v>
       </c>
@@ -9433,7 +9437,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A438" s="3">
         <v>447</v>
       </c>
@@ -9447,7 +9451,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A439" s="3">
         <v>447</v>
       </c>
@@ -9461,7 +9465,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A440" s="3">
         <v>447</v>
       </c>
@@ -9475,7 +9479,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A441" s="3">
         <v>447</v>
       </c>
@@ -9489,7 +9493,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A442" s="3">
         <v>447</v>
       </c>
@@ -9503,7 +9507,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A443" s="3">
         <v>447</v>
       </c>
@@ -9517,7 +9521,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A444" s="3">
         <v>447</v>
       </c>
@@ -9531,7 +9535,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A445" s="3">
         <v>478</v>
       </c>
@@ -9545,7 +9549,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A446" s="3">
         <v>478</v>
       </c>
@@ -9559,7 +9563,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A447" s="3">
         <v>478</v>
       </c>
@@ -9573,7 +9577,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A448" s="3">
         <v>478</v>
       </c>
@@ -9587,7 +9591,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A449" s="3">
         <v>478</v>
       </c>
@@ -9601,7 +9605,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A450" s="3">
         <v>478</v>
       </c>
@@ -9615,7 +9619,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A451" s="3">
         <v>478</v>
       </c>
@@ -9629,7 +9633,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A452" s="3">
         <v>478</v>
       </c>
@@ -9643,7 +9647,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A453" s="3">
         <v>484</v>
       </c>
@@ -9657,7 +9661,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A454" s="3">
         <v>484</v>
       </c>
@@ -9671,7 +9675,7 @@
         <v>769</v>
       </c>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A455" s="3">
         <v>484</v>
       </c>
@@ -9685,7 +9689,7 @@
         <v>771</v>
       </c>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A456" s="3">
         <v>486</v>
       </c>
@@ -9699,7 +9703,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A457" s="3">
         <v>486</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A458" s="3">
         <v>486</v>
       </c>
@@ -9727,7 +9731,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A459" s="3">
         <v>486</v>
       </c>
@@ -9741,7 +9745,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A460" s="3">
         <v>487</v>
       </c>
@@ -9755,7 +9759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A461" s="3">
         <v>487</v>
       </c>
@@ -9769,7 +9773,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A462" s="3">
         <v>487</v>
       </c>
@@ -9783,7 +9787,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A463" s="3">
         <v>487</v>
       </c>
@@ -9797,7 +9801,7 @@
         <v>782</v>
       </c>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A464" s="3">
         <v>487</v>
       </c>
@@ -9811,7 +9815,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A465" s="3">
         <v>487</v>
       </c>
@@ -9825,7 +9829,7 @@
         <v>786</v>
       </c>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A466" s="3">
         <v>487</v>
       </c>
@@ -9839,7 +9843,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A467" s="3">
         <v>487</v>
       </c>
@@ -9853,7 +9857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A468" s="3">
         <v>487</v>
       </c>
@@ -9867,7 +9871,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A469" s="3">
         <v>487</v>
       </c>
@@ -9881,7 +9885,7 @@
         <v>792</v>
       </c>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A470" s="3">
         <v>487</v>
       </c>
@@ -9895,7 +9899,7 @@
         <v>794</v>
       </c>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A471" s="3">
         <v>487</v>
       </c>
@@ -9909,7 +9913,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A472" s="3">
         <v>495</v>
       </c>
@@ -9923,7 +9927,7 @@
         <v>797</v>
       </c>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A473" s="3">
         <v>495</v>
       </c>
@@ -9937,7 +9941,7 @@
         <v>799</v>
       </c>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A474" s="3">
         <v>495</v>
       </c>
@@ -9951,7 +9955,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A475" s="3">
         <v>495</v>
       </c>
@@ -9965,7 +9969,7 @@
         <v>802</v>
       </c>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A476" s="3">
         <v>500</v>
       </c>
@@ -9979,7 +9983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A477" s="3">
         <v>500</v>
       </c>
@@ -9993,7 +9997,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A478" s="3">
         <v>500</v>
       </c>
@@ -10007,7 +10011,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A479" s="3">
         <v>500</v>
       </c>
@@ -10021,7 +10025,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A480" s="3">
         <v>500</v>
       </c>
@@ -10035,7 +10039,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A481" s="3">
         <v>508</v>
       </c>
@@ -10049,7 +10053,7 @@
         <v>812</v>
       </c>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A482" s="3">
         <v>508</v>
       </c>
@@ -10063,7 +10067,7 @@
         <v>814</v>
       </c>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A483" s="3">
         <v>508</v>
       </c>
@@ -10077,7 +10081,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A484" s="3">
         <v>509</v>
       </c>
@@ -10091,7 +10095,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A485" s="3">
         <v>509</v>
       </c>
@@ -10105,7 +10109,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A486" s="3">
         <v>509</v>
       </c>
@@ -10119,7 +10123,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A487" s="3">
         <v>509</v>
       </c>
@@ -10133,7 +10137,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A488" s="3">
         <v>511</v>
       </c>
@@ -10147,7 +10151,7 @@
         <v>823</v>
       </c>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A489" s="3">
         <v>511</v>
       </c>
@@ -10161,7 +10165,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A490" s="3">
         <v>511</v>
       </c>
@@ -10175,7 +10179,7 @@
         <v>827</v>
       </c>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A491" s="3">
         <v>511</v>
       </c>
@@ -10189,7 +10193,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A492" s="3">
         <v>511</v>
       </c>
@@ -10203,7 +10207,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A493" s="3">
         <v>511</v>
       </c>
@@ -10217,7 +10221,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A494" s="3">
         <v>515</v>
       </c>
@@ -10231,7 +10235,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A495" s="3">
         <v>516</v>
       </c>
@@ -10245,7 +10249,7 @@
         <v>836</v>
       </c>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A496" s="3">
         <v>517</v>
       </c>
@@ -10259,7 +10263,7 @@
         <v>839</v>
       </c>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A497" s="3">
         <v>517</v>
       </c>
@@ -10273,7 +10277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A498" s="3">
         <v>518</v>
       </c>
@@ -10287,7 +10291,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A499" s="3">
         <v>518</v>
       </c>
@@ -10301,7 +10305,7 @@
         <v>846</v>
       </c>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A500" s="3">
         <v>518</v>
       </c>
@@ -10315,7 +10319,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A501" s="3">
         <v>518</v>
       </c>
@@ -10329,7 +10333,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A502" s="3">
         <v>520</v>
       </c>
@@ -10343,7 +10347,7 @@
         <v>850</v>
       </c>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A503" s="3">
         <v>522</v>
       </c>
@@ -10357,7 +10361,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A504" s="3">
         <v>522</v>
       </c>
@@ -10371,7 +10375,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A505" s="3">
         <v>523</v>
       </c>
@@ -10385,7 +10389,7 @@
         <v>857</v>
       </c>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A506" s="3">
         <v>523</v>
       </c>
@@ -10399,7 +10403,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A507" s="3">
         <v>523</v>
       </c>
@@ -10413,7 +10417,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A508" s="3">
         <v>523</v>
       </c>
@@ -10427,7 +10431,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A509" s="3">
         <v>523</v>
       </c>
@@ -10441,7 +10445,7 @@
         <v>847</v>
       </c>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A510" s="3">
         <v>523</v>
       </c>
@@ -10455,7 +10459,7 @@
         <v>861</v>
       </c>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A511" s="3">
         <v>523</v>
       </c>
@@ -10469,7 +10473,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A512" s="3">
         <v>523</v>
       </c>
@@ -10483,7 +10487,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A513" s="3">
         <v>528</v>
       </c>
@@ -10497,7 +10501,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A514" s="3">
         <v>528</v>
       </c>
@@ -10511,7 +10515,7 @@
         <v>867</v>
       </c>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A515" s="3">
         <v>528</v>
       </c>
@@ -10525,7 +10529,7 @@
         <v>870</v>
       </c>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A516" s="3">
         <v>528</v>
       </c>
@@ -10539,7 +10543,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A517" s="3">
         <v>528</v>
       </c>
@@ -10553,7 +10557,7 @@
         <v>874</v>
       </c>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A518" s="3">
         <v>528</v>
       </c>
@@ -10567,7 +10571,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A519" s="3">
         <v>528</v>
       </c>
@@ -10581,7 +10585,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A520" s="3">
         <v>528</v>
       </c>
@@ -10595,7 +10599,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A521" s="3">
         <v>533</v>
       </c>
@@ -10609,7 +10613,7 @@
         <v>880</v>
       </c>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A522" s="3">
         <v>534</v>
       </c>
@@ -10623,7 +10627,7 @@
         <v>882</v>
       </c>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A523" s="3">
         <v>534</v>
       </c>
@@ -10637,7 +10641,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A524" s="3">
         <v>534</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>886</v>
       </c>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A525" s="3">
         <v>536</v>
       </c>
@@ -10665,7 +10669,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A526" s="3">
         <v>536</v>
       </c>
@@ -10679,7 +10683,7 @@
         <v>891</v>
       </c>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A527" s="3">
         <v>537</v>
       </c>
@@ -10693,7 +10697,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A528" s="3">
         <v>537</v>
       </c>
@@ -10707,7 +10711,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A529" s="3">
         <v>537</v>
       </c>
@@ -10721,7 +10725,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A530" s="3">
         <v>537</v>
       </c>
@@ -10735,7 +10739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A531" s="3">
         <v>537</v>
       </c>
@@ -10749,7 +10753,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A532" s="3">
         <v>537</v>
       </c>
@@ -10763,7 +10767,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A533" s="3">
         <v>537</v>
       </c>
@@ -10777,7 +10781,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A534" s="3">
         <v>537</v>
       </c>
@@ -10791,7 +10795,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A535" s="3">
         <v>537</v>
       </c>
@@ -10805,7 +10809,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A536" s="3">
         <v>537</v>
       </c>
@@ -10819,7 +10823,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A537" s="3">
         <v>537</v>
       </c>
@@ -10833,7 +10837,7 @@
         <v>907</v>
       </c>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A538" s="3">
         <v>537</v>
       </c>
@@ -10847,7 +10851,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A539" s="3">
         <v>537</v>
       </c>
@@ -10861,7 +10865,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A540" s="3">
         <v>537</v>
       </c>
@@ -10875,7 +10879,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A541" s="3">
         <v>543</v>
       </c>
@@ -10889,7 +10893,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A542" s="3">
         <v>544</v>
       </c>
@@ -10903,472 +10907,472 @@
         <v>28</v>
       </c>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D543" s="5"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D544" s="5"/>
     </row>
-    <row r="545" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D545" s="5"/>
     </row>
-    <row r="546" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D546" s="5"/>
     </row>
-    <row r="547" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D547" s="5"/>
     </row>
-    <row r="548" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D548" s="5"/>
     </row>
-    <row r="549" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D549" s="5"/>
     </row>
-    <row r="550" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D550" s="5"/>
     </row>
-    <row r="551" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D551" s="5"/>
     </row>
-    <row r="552" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D552" s="5"/>
     </row>
-    <row r="553" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D553" s="5"/>
     </row>
-    <row r="554" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D554" s="5"/>
     </row>
-    <row r="555" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D555" s="5"/>
     </row>
-    <row r="556" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D556" s="5"/>
     </row>
-    <row r="557" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D557" s="5"/>
     </row>
-    <row r="558" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D558" s="5"/>
     </row>
-    <row r="559" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D559" s="5"/>
     </row>
-    <row r="560" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D560" s="5"/>
     </row>
-    <row r="561" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D561" s="5"/>
     </row>
-    <row r="562" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D562" s="5"/>
     </row>
-    <row r="563" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D563" s="5"/>
     </row>
-    <row r="564" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D564" s="5"/>
     </row>
-    <row r="565" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D565" s="5"/>
     </row>
-    <row r="566" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D566" s="5"/>
     </row>
-    <row r="567" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D567" s="5"/>
     </row>
-    <row r="568" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D568" s="5"/>
     </row>
-    <row r="569" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D569" s="5"/>
     </row>
-    <row r="570" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D570" s="5"/>
     </row>
-    <row r="571" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D571" s="5"/>
     </row>
-    <row r="572" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D572" s="5"/>
     </row>
-    <row r="573" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D573" s="5"/>
     </row>
-    <row r="574" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D574" s="5"/>
     </row>
-    <row r="575" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D575" s="5"/>
     </row>
-    <row r="576" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D576" s="5"/>
     </row>
-    <row r="577" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D577" s="5"/>
     </row>
-    <row r="578" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D578" s="5"/>
     </row>
-    <row r="579" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D579" s="5"/>
     </row>
-    <row r="580" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D580" s="5"/>
     </row>
-    <row r="581" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D581" s="5"/>
     </row>
-    <row r="582" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D582" s="5"/>
     </row>
-    <row r="583" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D583" s="5"/>
     </row>
-    <row r="584" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D584" s="5"/>
     </row>
-    <row r="585" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D585" s="5"/>
     </row>
-    <row r="586" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D586" s="5"/>
     </row>
-    <row r="587" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D587" s="5"/>
     </row>
-    <row r="588" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D588" s="5"/>
     </row>
-    <row r="589" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D589" s="5"/>
     </row>
-    <row r="590" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D590" s="5"/>
     </row>
-    <row r="591" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="591" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D591" s="5"/>
     </row>
-    <row r="592" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D592" s="5"/>
     </row>
-    <row r="593" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D593" s="5"/>
     </row>
-    <row r="594" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D594" s="5"/>
     </row>
-    <row r="595" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D595" s="5"/>
     </row>
-    <row r="596" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D596" s="5"/>
     </row>
-    <row r="597" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D597" s="5"/>
     </row>
-    <row r="598" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D598" s="5"/>
     </row>
-    <row r="599" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D599" s="5"/>
     </row>
-    <row r="600" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D600" s="5"/>
     </row>
-    <row r="601" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D601" s="5"/>
     </row>
-    <row r="602" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D602" s="5"/>
     </row>
-    <row r="603" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D603" s="5"/>
     </row>
-    <row r="604" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D604" s="5"/>
     </row>
-    <row r="605" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D605" s="5"/>
     </row>
-    <row r="606" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D606" s="5"/>
     </row>
-    <row r="607" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D607" s="5"/>
     </row>
-    <row r="608" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D608" s="5"/>
     </row>
-    <row r="609" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D609" s="5"/>
     </row>
-    <row r="610" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D610" s="5"/>
     </row>
-    <row r="611" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D611" s="5"/>
     </row>
-    <row r="612" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D612" s="5"/>
     </row>
-    <row r="613" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D613" s="5"/>
     </row>
-    <row r="614" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D614" s="5"/>
     </row>
-    <row r="615" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D615" s="5"/>
     </row>
-    <row r="616" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D616" s="5"/>
     </row>
-    <row r="617" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D617" s="5"/>
     </row>
-    <row r="618" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D618" s="5"/>
     </row>
-    <row r="619" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D619" s="5"/>
     </row>
-    <row r="620" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D620" s="5"/>
     </row>
-    <row r="621" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D621" s="5"/>
     </row>
-    <row r="622" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D622" s="5"/>
     </row>
-    <row r="623" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D623" s="5"/>
     </row>
-    <row r="624" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D624" s="5"/>
     </row>
-    <row r="625" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D625" s="5"/>
     </row>
-    <row r="626" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D626" s="5"/>
     </row>
-    <row r="627" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D627" s="5"/>
     </row>
-    <row r="628" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D628" s="5"/>
     </row>
-    <row r="629" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D629" s="5"/>
     </row>
-    <row r="630" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D630" s="5"/>
     </row>
-    <row r="631" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="631" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D631" s="5"/>
     </row>
-    <row r="632" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="632" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D632" s="5"/>
     </row>
-    <row r="633" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="633" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D633" s="5"/>
     </row>
-    <row r="634" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="634" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D634" s="5"/>
     </row>
-    <row r="635" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="635" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D635" s="5"/>
     </row>
-    <row r="636" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="636" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D636" s="5"/>
     </row>
-    <row r="637" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="637" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D637" s="5"/>
     </row>
-    <row r="638" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="638" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D638" s="5"/>
     </row>
-    <row r="639" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="639" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D639" s="5"/>
     </row>
-    <row r="640" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="640" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D640" s="5"/>
     </row>
-    <row r="641" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D641" s="5"/>
     </row>
-    <row r="642" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D642" s="5"/>
     </row>
-    <row r="643" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D643" s="5"/>
     </row>
-    <row r="644" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D644" s="5"/>
     </row>
-    <row r="645" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D645" s="5"/>
     </row>
-    <row r="646" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D646" s="5"/>
     </row>
-    <row r="647" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D647" s="5"/>
     </row>
-    <row r="648" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D648" s="5"/>
     </row>
-    <row r="649" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D649" s="5"/>
     </row>
-    <row r="650" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D650" s="5"/>
     </row>
-    <row r="651" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D651" s="5"/>
     </row>
-    <row r="652" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D652" s="5"/>
     </row>
-    <row r="653" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D653" s="5"/>
     </row>
-    <row r="654" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D654" s="5"/>
     </row>
-    <row r="655" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D655" s="5"/>
     </row>
-    <row r="656" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D656" s="5"/>
     </row>
-    <row r="657" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="657" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D657" s="5"/>
     </row>
-    <row r="658" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="658" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D658" s="5"/>
     </row>
-    <row r="659" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="659" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D659" s="5"/>
     </row>
-    <row r="660" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="660" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D660" s="5"/>
     </row>
-    <row r="661" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="661" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D661" s="5"/>
     </row>
-    <row r="662" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="662" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D662" s="5"/>
     </row>
-    <row r="663" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="663" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D663" s="5"/>
     </row>
-    <row r="664" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="664" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D664" s="5"/>
     </row>
-    <row r="665" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="665" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D665" s="5"/>
     </row>
-    <row r="666" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="666" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D666" s="5"/>
     </row>
-    <row r="667" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="667" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D667" s="5"/>
     </row>
-    <row r="668" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="668" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D668" s="5"/>
     </row>
-    <row r="669" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="669" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D669" s="5"/>
     </row>
-    <row r="670" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="670" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D670" s="5"/>
     </row>
-    <row r="671" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="671" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D671" s="5"/>
     </row>
-    <row r="672" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="672" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D672" s="5"/>
     </row>
-    <row r="673" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="673" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D673" s="5"/>
     </row>
-    <row r="674" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="674" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D674" s="5"/>
     </row>
-    <row r="675" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="675" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D675" s="5"/>
     </row>
-    <row r="676" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="676" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D676" s="5"/>
     </row>
-    <row r="677" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="677" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D677" s="5"/>
     </row>
-    <row r="678" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="678" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D678" s="5"/>
     </row>
-    <row r="679" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="679" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D679" s="5"/>
     </row>
-    <row r="680" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="680" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D680" s="5"/>
     </row>
-    <row r="681" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="681" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D681" s="5"/>
     </row>
-    <row r="682" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="682" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D682" s="5"/>
     </row>
-    <row r="683" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="683" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D683" s="5"/>
     </row>
-    <row r="684" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="684" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D684" s="5"/>
     </row>
-    <row r="685" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="685" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D685" s="5"/>
     </row>
-    <row r="686" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="686" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D686" s="5"/>
     </row>
-    <row r="687" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="687" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D687" s="5"/>
     </row>
-    <row r="688" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="688" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D688" s="5"/>
     </row>
-    <row r="689" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="689" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D689" s="5"/>
     </row>
-    <row r="690" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="690" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D690" s="5"/>
     </row>
-    <row r="691" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="691" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D691" s="5"/>
     </row>
-    <row r="692" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="692" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D692" s="5"/>
     </row>
-    <row r="693" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="693" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D693" s="5"/>
     </row>
-    <row r="694" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="694" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D694" s="5"/>
     </row>
-    <row r="695" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="695" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D695" s="5"/>
     </row>
-    <row r="696" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="696" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D696" s="5"/>
     </row>
-    <row r="697" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="697" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D697" s="5"/>
     </row>
-    <row r="698" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="698" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D698" s="5"/>
     </row>
   </sheetData>
@@ -11385,12 +11389,12 @@
       <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>754</v>
       </c>
